--- a/src/test/resources/testdata/cartpage.xlsx
+++ b/src/test/resources/testdata/cartpage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>B-Protin Powder Chocolate 200 g</t>
   </si>
@@ -37,14 +37,17 @@
   <si>
     <t>Apollo Pharmacy Slimchoice Shake Strawberry Flavour Powder</t>
   </si>
+  <si>
+    <t>Hyd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -59,16 +62,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,6 +78,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -90,7 +161,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,92 +191,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,13 +213,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,37 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,127 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,6 +404,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,30 +427,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -449,30 +437,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -501,153 +465,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -977,15 +980,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="135" spans="1:9">
+    <row r="1" ht="135" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,6 +1016,9 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/test/resources/testdata/cartpage.xlsx
+++ b/src/test/resources/testdata/cartpage.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>B-Protin Powder Chocolate 200 g</t>
   </si>
   <si>
-    <t>229</t>
+    <t>1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>229</t>
   </si>
   <si>
     <t>Apollo Pharmacy Slim Choice Shake Strawberry 500g</t>
@@ -37,19 +37,16 @@
   <si>
     <t>Apollo Pharmacy Slimchoice Shake Strawberry Flavour Powder</t>
   </si>
-  <si>
-    <t>Hyd</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,11 +57,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,7 +74,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,21 +106,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,6 +120,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -124,49 +142,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -176,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,15 +171,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,37 +210,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,127 +366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,27 +413,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -457,25 +443,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,20 +481,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,130 +524,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -660,6 +657,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -980,22 +980,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="135" spans="1:10">
+    <row r="1" ht="135" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1005,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1016,9 +1016,6 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
